--- a/biology/Botanique/Oxyanthus_okuensis/Oxyanthus_okuensis.xlsx
+++ b/biology/Botanique/Oxyanthus_okuensis/Oxyanthus_okuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oxyanthus okuensis Cheek &amp; Sonké est une espèce d'arbustes de la famille des Rubiaceae et du genre Oxyanthus, endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxyanthus okuensis Cheek &amp; Sonké est une espèce d'arbustes de la famille des Rubiaceae et du genre Oxyanthus, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique okuensis fait référence au lac Oku, au nord-ouest du Cameroun, où elle a été découverte par Duncan W. Thomas en 1985[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique okuensis fait référence au lac Oku, au nord-ouest du Cameroun, où elle a été découverte par Duncan W. Thomas en 1985.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbre d'une hauteur comprise entre 3 et 8 m[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbre d'une hauteur comprise entre 3 et 8 m. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ne connaît que deux localisations pour cette espèce, le mont Oku et la crête d'Ijim. L'hypothèse d'un troisième site, à Ntum, a été envisagée, mais demande à être confirmée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne connaît que deux localisations pour cette espèce, le mont Oku et la crête d'Ijim. L'hypothèse d'un troisième site, à Ntum, a été envisagée, mais demande à être confirmée.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée dans les sous-bois de la forêt montagnarde à feuilles persistantes, à une altitude comprise entre 1 800 et 2 200 m[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée dans les sous-bois de la forêt montagnarde à feuilles persistantes, à une altitude comprise entre 1 800 et 2 200 m.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abattage d'arbres pour le bois de chauffage et la déforestation liée à l'agriculture peuvent constituer des menaces. C'est pourquoi l'espèce figure sur la liste rouge de l'UICN avec le statut « en danger critique d'extinction » (CR)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abattage d'arbres pour le bois de chauffage et la déforestation liée à l'agriculture peuvent constituer des menaces. C'est pourquoi l'espèce figure sur la liste rouge de l'UICN avec le statut « en danger critique d'extinction » (CR).
 </t>
         </is>
       </c>
